--- a/outputs-r202/o__Methanomassiliicoccales.xlsx
+++ b/outputs-r202/o__Methanomassiliicoccales.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,42 +484,42 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>RUG255.fasta</t>
+          <t>RUG336.fasta</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>2.220276194350203e-14</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>2.220276194350203e-14</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>0.6638057446911317</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>0.3361942553088017</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>2.220276194350203e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>0.6638057446911317</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>f__Methanomethylophilaceae</t>
+          <t>f__Methanomassiliicoccaceae</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>f__Methanomethylophilaceae</t>
+          <t>f__Methanomassiliicoccaceae(reject)</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>RUG258.fasta</t>
+          <t>hRUG898.fasta</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -546,356 +546,6 @@
         </is>
       </c>
       <c r="I3" t="inlineStr">
-        <is>
-          <t>f__Methanomethylophilaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>RUG293.fasta</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>f__Methanomassiliicoccaceae</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>f__Methanomassiliicoccaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>RUG336.fasta</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>2.220276194350203e-14</v>
-      </c>
-      <c r="C5" t="n">
-        <v>2.220276194350203e-14</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.6638057446911317</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.3361942553088017</v>
-      </c>
-      <c r="F5" t="n">
-        <v>2.220276194350203e-14</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.6638057446911317</v>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>f__Methanomassiliicoccaceae</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>f__Methanomassiliicoccaceae(reject)</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>RUG466.fasta</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>f__Methanomethylophilaceae</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>f__Methanomethylophilaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>RUG567.fasta</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>f__Methanomethylophilaceae</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>f__Methanomethylophilaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>RUG568.fasta</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>2.219943647880775e-14</v>
-      </c>
-      <c r="C8" t="n">
-        <v>2.219943647880775e-14</v>
-      </c>
-      <c r="D8" t="n">
-        <v>2.219943647880775e-14</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.9350956373480115</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.06490436265192183</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.9350956373480115</v>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>f__Methanomethylophilaceae</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>f__Methanomethylophilaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>RUG642.fasta</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>1</v>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>f__Methanomethylophilaceae</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>f__Methanomethylophilaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>RUG675.fasta</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>0</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>1</v>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>f__Methanomethylophilaceae</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>f__Methanomethylophilaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>RUG707.fasta</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>2.219943647880775e-14</v>
-      </c>
-      <c r="C11" t="n">
-        <v>2.219943647880775e-14</v>
-      </c>
-      <c r="D11" t="n">
-        <v>2.219943647880775e-14</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.9350956373480115</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.06490436265192183</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.9350956373480115</v>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>f__Methanomethylophilaceae</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>f__Methanomethylophilaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>RUG779.fasta</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>0</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>1</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" t="n">
-        <v>1</v>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>f__Methanomethylophilaceae</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>f__Methanomethylophilaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>hRUG898.fasta</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>1</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" t="n">
-        <v>1</v>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>f__Methanomethylophilaceae</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
         <is>
           <t>f__Methanomethylophilaceae</t>
         </is>
